--- a/team_specific_matrix/Louisiana_B.xlsx
+++ b/team_specific_matrix/Louisiana_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1979381443298969</v>
+        <v>0.1996434937611408</v>
       </c>
       <c r="C2">
-        <v>0.5567010309278351</v>
+        <v>0.5543672014260249</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004123711340206186</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1505154639175258</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09072164948453608</v>
+        <v>0.08912655971479501</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.003546099290780142</v>
+        <v>0.00308641975308642</v>
       </c>
       <c r="C3">
-        <v>0.02836879432624113</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02836879432624113</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7092198581560284</v>
+        <v>0.7098765432098766</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2304964539007092</v>
+        <v>0.2345679012345679</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07246376811594203</v>
+        <v>0.075</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01449275362318841</v>
+        <v>0.0125</v>
       </c>
       <c r="P4">
-        <v>0.6376811594202898</v>
+        <v>0.6375</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2753623188405797</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0641025641025641</v>
+        <v>0.06478873239436619</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01602564102564102</v>
+        <v>0.01971830985915493</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05128205128205128</v>
+        <v>0.04788732394366197</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2724358974358974</v>
+        <v>0.2788732394366197</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009615384615384616</v>
+        <v>0.008450704225352112</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1538461538461539</v>
+        <v>0.1380281690140845</v>
       </c>
       <c r="R6">
-        <v>0.05448717948717949</v>
+        <v>0.05352112676056338</v>
       </c>
       <c r="S6">
-        <v>0.3782051282051282</v>
+        <v>0.3887323943661972</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0972644376899696</v>
+        <v>0.09641873278236915</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0121580547112462</v>
+        <v>0.01928374655647383</v>
       </c>
       <c r="E7">
-        <v>0.00303951367781155</v>
+        <v>0.002754820936639119</v>
       </c>
       <c r="F7">
-        <v>0.03343465045592705</v>
+        <v>0.03305785123966942</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1641337386018237</v>
+        <v>0.1680440771349862</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01519756838905775</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1580547112462006</v>
+        <v>0.162534435261708</v>
       </c>
       <c r="R7">
-        <v>0.06990881458966565</v>
+        <v>0.07162534435261708</v>
       </c>
       <c r="S7">
-        <v>0.4468085106382979</v>
+        <v>0.4297520661157025</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09455958549222798</v>
+        <v>0.09655172413793103</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0194300518134715</v>
+        <v>0.01839080459770115</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05310880829015544</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1282383419689119</v>
+        <v>0.1252873563218391</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01036269430051814</v>
+        <v>0.009195402298850575</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1865284974093264</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="R8">
-        <v>0.06476683937823834</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S8">
-        <v>0.4430051813471503</v>
+        <v>0.4425287356321839</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08469055374592833</v>
+        <v>0.09510086455331412</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02605863192182411</v>
+        <v>0.02305475504322766</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08143322475570032</v>
+        <v>0.08357348703170028</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1140065146579805</v>
+        <v>0.1037463976945245</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009771986970684038</v>
+        <v>0.01152737752161383</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1628664495114006</v>
+        <v>0.1873198847262248</v>
       </c>
       <c r="R9">
-        <v>0.09446254071661238</v>
+        <v>0.08645533141210375</v>
       </c>
       <c r="S9">
-        <v>0.4267100977198697</v>
+        <v>0.4092219020172911</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1186612576064909</v>
+        <v>0.1184560780834073</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0218052738336714</v>
+        <v>0.02129547471162378</v>
       </c>
       <c r="E10">
-        <v>0.0005070993914807302</v>
+        <v>0.0004436557231588288</v>
       </c>
       <c r="F10">
-        <v>0.05983772819472617</v>
+        <v>0.05989352262644188</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.122210953346856</v>
+        <v>0.1206743566992014</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01521298174442191</v>
+        <v>0.01552795031055901</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2038539553752536</v>
+        <v>0.2076308784383319</v>
       </c>
       <c r="R10">
-        <v>0.06744421906693712</v>
+        <v>0.064773735581189</v>
       </c>
       <c r="S10">
-        <v>0.3904665314401622</v>
+        <v>0.391304347826087</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1404174573055028</v>
+        <v>0.137221269296741</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09108159392789374</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="K11">
-        <v>0.1992409867172676</v>
+        <v>0.1989708404802744</v>
       </c>
       <c r="L11">
-        <v>0.5559772296015181</v>
+        <v>0.5540308747855918</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01328273244781784</v>
+        <v>0.01543739279588336</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7302631578947368</v>
+        <v>0.7329376854599406</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2105263157894737</v>
+        <v>0.2047477744807122</v>
       </c>
       <c r="K12">
-        <v>0.006578947368421052</v>
+        <v>0.008902077151335312</v>
       </c>
       <c r="L12">
-        <v>0.01973684210526316</v>
+        <v>0.02373887240356083</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03289473684210526</v>
+        <v>0.02967359050445104</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.01492537313432836</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02127659574468085</v>
+        <v>0.01842105263157895</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1580547112462006</v>
+        <v>0.1605263157894737</v>
       </c>
       <c r="I15">
-        <v>0.0729483282674772</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="J15">
-        <v>0.3556231003039514</v>
+        <v>0.35</v>
       </c>
       <c r="K15">
-        <v>0.06990881458966565</v>
+        <v>0.07105263157894737</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00911854103343465</v>
+        <v>0.007894736842105263</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0486322188449848</v>
+        <v>0.05</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2644376899696049</v>
+        <v>0.2684210526315789</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01607717041800643</v>
+        <v>0.01396648044692737</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1704180064308682</v>
+        <v>0.1731843575418995</v>
       </c>
       <c r="I16">
-        <v>0.07395498392282958</v>
+        <v>0.07541899441340782</v>
       </c>
       <c r="J16">
-        <v>0.3954983922829582</v>
+        <v>0.3854748603351955</v>
       </c>
       <c r="K16">
-        <v>0.09646302250803858</v>
+        <v>0.09497206703910614</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.022508038585209</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04180064308681672</v>
+        <v>0.04748603351955307</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1832797427652733</v>
+        <v>0.1871508379888268</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01443001443001443</v>
+        <v>0.01496259351620948</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1861471861471861</v>
+        <v>0.1770573566084788</v>
       </c>
       <c r="I17">
-        <v>0.09379509379509379</v>
+        <v>0.09351620947630923</v>
       </c>
       <c r="J17">
-        <v>0.3679653679653679</v>
+        <v>0.3753117206982544</v>
       </c>
       <c r="K17">
-        <v>0.1226551226551227</v>
+        <v>0.1184538653366584</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01587301587301587</v>
+        <v>0.01870324189526185</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08658008658008658</v>
+        <v>0.0885286783042394</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1125541125541126</v>
+        <v>0.1134663341645885</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.012</v>
+        <v>0.01444043321299639</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.1985559566787004</v>
       </c>
       <c r="I18">
-        <v>0.06</v>
+        <v>0.05776173285198556</v>
       </c>
       <c r="J18">
-        <v>0.444</v>
+        <v>0.444043321299639</v>
       </c>
       <c r="K18">
-        <v>0.08</v>
+        <v>0.08664259927797834</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008</v>
+        <v>0.007220216606498195</v>
       </c>
       <c r="N18">
-        <v>0.004</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="O18">
-        <v>0.052</v>
+        <v>0.05776173285198556</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.14</v>
+        <v>0.1299638989169675</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01481481481481482</v>
+        <v>0.0162999185004075</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2273148148148148</v>
+        <v>0.2249388753056235</v>
       </c>
       <c r="I19">
-        <v>0.08425925925925926</v>
+        <v>0.08353708231458842</v>
       </c>
       <c r="J19">
-        <v>0.3430555555555556</v>
+        <v>0.3492257538712307</v>
       </c>
       <c r="K19">
-        <v>0.1199074074074074</v>
+        <v>0.1145069274653627</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0162037037037037</v>
+        <v>0.01711491442542787</v>
       </c>
       <c r="N19">
-        <v>0.001851851851851852</v>
+        <v>0.00162999185004075</v>
       </c>
       <c r="O19">
-        <v>0.06388888888888888</v>
+        <v>0.06316218418907905</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1287037037037037</v>
+        <v>0.1295843520782396</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Louisiana_B.xlsx
+++ b/team_specific_matrix/Louisiana_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1996434937611408</v>
+        <v>0.1971608832807571</v>
       </c>
       <c r="C2">
-        <v>0.5543672014260249</v>
+        <v>0.5583596214511041</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0053475935828877</v>
+        <v>0.006309148264984227</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1515151515151515</v>
+        <v>0.1529968454258675</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08912655971479501</v>
+        <v>0.08517350157728706</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00308641975308642</v>
+        <v>0.00273224043715847</v>
       </c>
       <c r="C3">
-        <v>0.02777777777777778</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02469135802469136</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7098765432098766</v>
+        <v>0.7131147540983607</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2345679012345679</v>
+        <v>0.2377049180327869</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.075</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0125</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="P4">
-        <v>0.6375</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.275</v>
+        <v>0.2840909090909091</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06478873239436619</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01971830985915493</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04788732394366197</v>
+        <v>0.04871794871794872</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2788732394366197</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.008450704225352112</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1380281690140845</v>
+        <v>0.1358974358974359</v>
       </c>
       <c r="R6">
-        <v>0.05352112676056338</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="S6">
-        <v>0.3887323943661972</v>
+        <v>0.382051282051282</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09641873278236915</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01928374655647383</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="E7">
-        <v>0.002754820936639119</v>
+        <v>0.002427184466019417</v>
       </c>
       <c r="F7">
-        <v>0.03305785123966942</v>
+        <v>0.03398058252427184</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1680440771349862</v>
+        <v>0.1674757281553398</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01652892561983471</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.162534435261708</v>
+        <v>0.1601941747572816</v>
       </c>
       <c r="R7">
-        <v>0.07162534435261708</v>
+        <v>0.0703883495145631</v>
       </c>
       <c r="S7">
-        <v>0.4297520661157025</v>
+        <v>0.4344660194174757</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09655172413793103</v>
+        <v>0.09748427672955975</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01839080459770115</v>
+        <v>0.01781970649895178</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05172413793103448</v>
+        <v>0.05031446540880503</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1252873563218391</v>
+        <v>0.1289308176100629</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009195402298850575</v>
+        <v>0.01048218029350105</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1896551724137931</v>
+        <v>0.1865828092243187</v>
       </c>
       <c r="R8">
-        <v>0.06666666666666667</v>
+        <v>0.06708595387840671</v>
       </c>
       <c r="S8">
-        <v>0.4425287356321839</v>
+        <v>0.4412997903563941</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09510086455331412</v>
+        <v>0.104</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02305475504322766</v>
+        <v>0.02133333333333333</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08357348703170028</v>
+        <v>0.08266666666666667</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1037463976945245</v>
+        <v>0.1093333333333333</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01152737752161383</v>
+        <v>0.01066666666666667</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1873198847262248</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="R9">
-        <v>0.08645533141210375</v>
+        <v>0.09066666666666667</v>
       </c>
       <c r="S9">
-        <v>0.4092219020172911</v>
+        <v>0.3946666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1184560780834073</v>
+        <v>0.1223340040241449</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02129547471162378</v>
+        <v>0.02092555331991952</v>
       </c>
       <c r="E10">
-        <v>0.0004436557231588288</v>
+        <v>0.0004024144869215292</v>
       </c>
       <c r="F10">
-        <v>0.05989352262644188</v>
+        <v>0.05955734406438632</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1206743566992014</v>
+        <v>0.1187122736418511</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01552795031055901</v>
+        <v>0.01488933601609658</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2076308784383319</v>
+        <v>0.2056338028169014</v>
       </c>
       <c r="R10">
-        <v>0.064773735581189</v>
+        <v>0.06680080482897384</v>
       </c>
       <c r="S10">
-        <v>0.391304347826087</v>
+        <v>0.3907444668008048</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.137221269296741</v>
+        <v>0.1345565749235474</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09433962264150944</v>
+        <v>0.09480122324159021</v>
       </c>
       <c r="K11">
-        <v>0.1989708404802744</v>
+        <v>0.1972477064220184</v>
       </c>
       <c r="L11">
-        <v>0.5540308747855918</v>
+        <v>0.555045871559633</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01543739279588336</v>
+        <v>0.01834862385321101</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7329376854599406</v>
+        <v>0.7433862433862434</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2047477744807122</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="K12">
-        <v>0.008902077151335312</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="L12">
-        <v>0.02373887240356083</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02967359050445104</v>
+        <v>0.02645502645502645</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6865671641791045</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2985074626865671</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.01492537313432836</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01842105263157895</v>
+        <v>0.01918465227817746</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1605263157894737</v>
+        <v>0.1654676258992806</v>
       </c>
       <c r="I15">
-        <v>0.07368421052631578</v>
+        <v>0.07673860911270983</v>
       </c>
       <c r="J15">
-        <v>0.35</v>
+        <v>0.3477218225419664</v>
       </c>
       <c r="K15">
-        <v>0.07105263157894737</v>
+        <v>0.06954436450839328</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007894736842105263</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05</v>
+        <v>0.04796163069544365</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2684210526315789</v>
+        <v>0.2661870503597122</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01396648044692737</v>
+        <v>0.01728395061728395</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1731843575418995</v>
+        <v>0.1703703703703704</v>
       </c>
       <c r="I16">
-        <v>0.07541899441340782</v>
+        <v>0.0691358024691358</v>
       </c>
       <c r="J16">
-        <v>0.3854748603351955</v>
+        <v>0.4024691358024691</v>
       </c>
       <c r="K16">
-        <v>0.09497206703910614</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0223463687150838</v>
+        <v>0.01975308641975309</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.002469135802469136</v>
       </c>
       <c r="O16">
-        <v>0.04748603351955307</v>
+        <v>0.04197530864197531</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1871508379888268</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01496259351620948</v>
+        <v>0.01490825688073395</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1770573566084788</v>
+        <v>0.1777522935779816</v>
       </c>
       <c r="I17">
-        <v>0.09351620947630923</v>
+        <v>0.08944954128440367</v>
       </c>
       <c r="J17">
-        <v>0.3753117206982544</v>
+        <v>0.3807339449541284</v>
       </c>
       <c r="K17">
-        <v>0.1184538653366584</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01870324189526185</v>
+        <v>0.0194954128440367</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0885286783042394</v>
+        <v>0.09059633027522936</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1134663341645885</v>
+        <v>0.1077981651376147</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01444043321299639</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1985559566787004</v>
+        <v>0.1930379746835443</v>
       </c>
       <c r="I18">
-        <v>0.05776173285198556</v>
+        <v>0.06645569620253164</v>
       </c>
       <c r="J18">
-        <v>0.444043321299639</v>
+        <v>0.4367088607594937</v>
       </c>
       <c r="K18">
-        <v>0.08664259927797834</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007220216606498195</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="N18">
-        <v>0.003610108303249098</v>
+        <v>0.003164556962025316</v>
       </c>
       <c r="O18">
-        <v>0.05776173285198556</v>
+        <v>0.05696202531645569</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1299638989169675</v>
+        <v>0.129746835443038</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0162999185004075</v>
+        <v>0.01561338289962825</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2249388753056235</v>
+        <v>0.2245353159851301</v>
       </c>
       <c r="I19">
-        <v>0.08353708231458842</v>
+        <v>0.08178438661710037</v>
       </c>
       <c r="J19">
-        <v>0.3492257538712307</v>
+        <v>0.3475836431226766</v>
       </c>
       <c r="K19">
-        <v>0.1145069274653627</v>
+        <v>0.1174721189591078</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01711491442542787</v>
+        <v>0.01895910780669145</v>
       </c>
       <c r="N19">
-        <v>0.00162999185004075</v>
+        <v>0.001486988847583643</v>
       </c>
       <c r="O19">
-        <v>0.06316218418907905</v>
+        <v>0.06356877323420074</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1295843520782396</v>
+        <v>0.128996282527881</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Louisiana_B.xlsx
+++ b/team_specific_matrix/Louisiana_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1971608832807571</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="C2">
-        <v>0.5583596214511041</v>
+        <v>0.5607476635514018</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006309148264984227</v>
+        <v>0.006230529595015576</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1529968454258675</v>
+        <v>0.1526479750778816</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08517350157728706</v>
+        <v>0.08411214953271028</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00273224043715847</v>
+        <v>0.002695417789757413</v>
       </c>
       <c r="C3">
-        <v>0.02459016393442623</v>
+        <v>0.02425876010781671</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02185792349726776</v>
+        <v>0.0215633423180593</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7131147540983607</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2377049180327869</v>
+        <v>0.2371967654986523</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06818181818181818</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01136363636363636</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="P4">
-        <v>0.6363636363636364</v>
+        <v>0.6373626373626373</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2840909090909091</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06666666666666667</v>
+        <v>0.06565656565656566</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02307692307692308</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04871794871794872</v>
+        <v>0.04797979797979798</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2692307692307692</v>
+        <v>0.2752525252525252</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01025641025641026</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1358974358974359</v>
+        <v>0.1338383838383838</v>
       </c>
       <c r="R6">
-        <v>0.0641025641025641</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="S6">
-        <v>0.382051282051282</v>
+        <v>0.3762626262626262</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0970873786407767</v>
+        <v>0.09785202863961814</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01941747572815534</v>
+        <v>0.01909307875894988</v>
       </c>
       <c r="E7">
-        <v>0.002427184466019417</v>
+        <v>0.002386634844868735</v>
       </c>
       <c r="F7">
-        <v>0.03398058252427184</v>
+        <v>0.03341288782816229</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1674757281553398</v>
+        <v>0.1646778042959427</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01456310679611651</v>
+        <v>0.01431980906921241</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1601941747572816</v>
+        <v>0.1599045346062052</v>
       </c>
       <c r="R7">
-        <v>0.0703883495145631</v>
+        <v>0.06921241050119331</v>
       </c>
       <c r="S7">
-        <v>0.4344660194174757</v>
+        <v>0.4391408114558473</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09748427672955975</v>
+        <v>0.09670781893004116</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01781970649895178</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05031446540880503</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1289308176100629</v>
+        <v>0.1316872427983539</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01048218029350105</v>
+        <v>0.01131687242798354</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1865828092243187</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="R8">
-        <v>0.06708595387840671</v>
+        <v>0.0668724279835391</v>
       </c>
       <c r="S8">
-        <v>0.4412997903563941</v>
+        <v>0.4403292181069959</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.104</v>
+        <v>0.1058201058201058</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02133333333333333</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08266666666666667</v>
+        <v>0.08201058201058201</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1093333333333333</v>
+        <v>0.1084656084656085</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01066666666666667</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1866666666666667</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="R9">
-        <v>0.09066666666666667</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="S9">
-        <v>0.3946666666666667</v>
+        <v>0.3941798941798942</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1223340040241449</v>
+        <v>0.1214511041009464</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02092555331991952</v>
+        <v>0.02129337539432177</v>
       </c>
       <c r="E10">
-        <v>0.0004024144869215292</v>
+        <v>0.0003943217665615142</v>
       </c>
       <c r="F10">
-        <v>0.05955734406438632</v>
+        <v>0.05954258675078864</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1187122736418511</v>
+        <v>0.1186908517350158</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01488933601609658</v>
+        <v>0.01498422712933754</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2056338028169014</v>
+        <v>0.2058359621451104</v>
       </c>
       <c r="R10">
-        <v>0.06680080482897384</v>
+        <v>0.06703470031545741</v>
       </c>
       <c r="S10">
-        <v>0.3907444668008048</v>
+        <v>0.3907728706624606</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1345565749235474</v>
+        <v>0.1334332833583208</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09480122324159021</v>
+        <v>0.09745127436281859</v>
       </c>
       <c r="K11">
-        <v>0.1972477064220184</v>
+        <v>0.1964017991004498</v>
       </c>
       <c r="L11">
-        <v>0.555045871559633</v>
+        <v>0.5547226386806596</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01834862385321101</v>
+        <v>0.01799100449775112</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7433862433862434</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1984126984126984</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="K12">
-        <v>0.007936507936507936</v>
+        <v>0.01038961038961039</v>
       </c>
       <c r="L12">
-        <v>0.02380952380952381</v>
+        <v>0.02337662337662338</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02645502645502645</v>
+        <v>0.02597402597402598</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6923076923076923</v>
+        <v>0.6790123456790124</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.282051282051282</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02564102564102564</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01918465227817746</v>
+        <v>0.01873536299765808</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1654676258992806</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="I15">
-        <v>0.07673860911270983</v>
+        <v>0.07494145199063232</v>
       </c>
       <c r="J15">
-        <v>0.3477218225419664</v>
+        <v>0.351288056206089</v>
       </c>
       <c r="K15">
-        <v>0.06954436450839328</v>
+        <v>0.06791569086651054</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007194244604316547</v>
+        <v>0.00702576112412178</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04796163069544365</v>
+        <v>0.05152224824355972</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2661870503597122</v>
+        <v>0.2646370023419204</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01728395061728395</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1703703703703704</v>
+        <v>0.1699029126213592</v>
       </c>
       <c r="I16">
-        <v>0.0691358024691358</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="J16">
-        <v>0.4024691358024691</v>
+        <v>0.4053398058252427</v>
       </c>
       <c r="K16">
-        <v>0.09876543209876543</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01975308641975309</v>
+        <v>0.02184466019417476</v>
       </c>
       <c r="N16">
-        <v>0.002469135802469136</v>
+        <v>0.002427184466019417</v>
       </c>
       <c r="O16">
-        <v>0.04197530864197531</v>
+        <v>0.0412621359223301</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1777777777777778</v>
+        <v>0.1747572815533981</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01490825688073395</v>
+        <v>0.01467268623024831</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1777522935779816</v>
+        <v>0.1783295711060948</v>
       </c>
       <c r="I17">
-        <v>0.08944954128440367</v>
+        <v>0.08803611738148984</v>
       </c>
       <c r="J17">
-        <v>0.3807339449541284</v>
+        <v>0.3848758465011287</v>
       </c>
       <c r="K17">
-        <v>0.1192660550458716</v>
+        <v>0.118510158013544</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0194954128440367</v>
+        <v>0.02031602708803612</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.09059633027522936</v>
+        <v>0.08916478555304741</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1077981651376147</v>
+        <v>0.1060948081264108</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0189873417721519</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1930379746835443</v>
+        <v>0.191358024691358</v>
       </c>
       <c r="I18">
-        <v>0.06645569620253164</v>
+        <v>0.06790123456790123</v>
       </c>
       <c r="J18">
-        <v>0.4367088607594937</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="K18">
-        <v>0.08860759493670886</v>
+        <v>0.08950617283950617</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006329113924050633</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="N18">
-        <v>0.003164556962025316</v>
+        <v>0.00308641975308642</v>
       </c>
       <c r="O18">
-        <v>0.05696202531645569</v>
+        <v>0.05864197530864197</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.129746835443038</v>
+        <v>0.1327160493827161</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01561338289962825</v>
+        <v>0.01607599561563756</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2245353159851301</v>
+        <v>0.2246985750822068</v>
       </c>
       <c r="I19">
-        <v>0.08178438661710037</v>
+        <v>0.08111070515162587</v>
       </c>
       <c r="J19">
-        <v>0.3475836431226766</v>
+        <v>0.3470953598830837</v>
       </c>
       <c r="K19">
-        <v>0.1174721189591078</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01895910780669145</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="N19">
-        <v>0.001486988847583643</v>
+        <v>0.001461454146876142</v>
       </c>
       <c r="O19">
-        <v>0.06356877323420074</v>
+        <v>0.06393861892583121</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.128996282527881</v>
+        <v>0.1293386919985385</v>
       </c>
     </row>
   </sheetData>
